--- a/Datos/Anuario2024/120605_Ecoparque.xlsx
+++ b/Datos/Anuario2024/120605_Ecoparque.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="127" r:id="rId1"/>
+    <sheet name="1" sheetId="98" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="103" r:id="rId3"/>
+    <sheet name="2" sheetId="100" r:id="rId4"/>
+    <sheet name="3" sheetId="99" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -59,93 +65,320 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$N$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$N$38</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+  <si>
+    <t>Envases ligeros</t>
+  </si>
+  <si>
+    <t>Tóner</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Poda</t>
+  </si>
+  <si>
+    <t>Voluminosos</t>
+  </si>
+  <si>
+    <t>Aceite de motor</t>
+  </si>
+  <si>
+    <t>Aceites y grasas</t>
+  </si>
+  <si>
+    <t>Aerosoles</t>
+  </si>
+  <si>
+    <t>Baterías</t>
+  </si>
+  <si>
+    <t>Envases de RP (Metálicos)</t>
+  </si>
+  <si>
+    <t>Fluorescentes</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Neumáticos</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Pinturas</t>
+  </si>
+  <si>
+    <t>Radiografías</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Escombros</t>
+  </si>
+  <si>
+    <t>Envases de RP (Plástico)</t>
+  </si>
+  <si>
+    <t>Papel/cartón</t>
+  </si>
+  <si>
+    <t>Colchones</t>
+  </si>
+  <si>
+    <t>Maderas</t>
+  </si>
+  <si>
+    <t>Metales</t>
+  </si>
+  <si>
+    <t>Papel/Cartón</t>
+  </si>
+  <si>
+    <t>Podas</t>
+  </si>
+  <si>
+    <t>Vídrios</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Acolchados</t>
+  </si>
+  <si>
+    <t>RAEEs</t>
+  </si>
+  <si>
+    <t>Contenedores</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Fuente: EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Envases vidrio</t>
+  </si>
+  <si>
+    <t>Media entradas/día</t>
+  </si>
+  <si>
+    <t>Materiales (kg)</t>
+  </si>
+  <si>
+    <t>Nota: RP (Residuos peligrosos), RAEEs (Residuos de aparatos eléctricos y electrónicos). Los datos no incluyen recogida domiciliaria.</t>
+  </si>
+  <si>
+    <t>Aceites</t>
+  </si>
+  <si>
+    <t>Bombonas de butano/propano y camping gas</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: RAEES Residuos de aparatos eléctricos y electrónicos. </t>
+  </si>
+  <si>
+    <t>RAEES</t>
+  </si>
+  <si>
+    <t>Toner</t>
+  </si>
+  <si>
+    <t>Peso (en kilogramos)</t>
+  </si>
+  <si>
+    <t>RECOGIDA SELECTIVA EN EL ECOPARQUE</t>
+  </si>
+  <si>
+    <t>Fluorescentes y bombillas</t>
+  </si>
+  <si>
+    <t>1. Entradas por día de la semana y mes en el Ecoparque de Vara de Quart. 2023</t>
+  </si>
+  <si>
+    <t>2. Productos entrados en el Ecoparque de Vara de Quart por mes y tipo de residuo. 2023</t>
+  </si>
+  <si>
+    <t>Botellas helio</t>
+  </si>
+  <si>
+    <t>Extintores</t>
+  </si>
+  <si>
+    <t>Termómetros mercurio</t>
+  </si>
+  <si>
+    <t>Transporte peligroso</t>
+  </si>
+  <si>
+    <t>Bombonas de butano y camping gas</t>
+  </si>
+  <si>
+    <t>Cápsulas café</t>
+  </si>
+  <si>
+    <t>Mezcla de químicos</t>
+  </si>
+  <si>
+    <t>Palets UTE Hornillos</t>
+  </si>
+  <si>
+    <t>3. Movimientos de contenedores en el Ecoparque de Vara de Quart por mes. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF7030A0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,89 +407,90 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -326,12 +560,80 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="331470"/>
+          <a:ext cx="5314950" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2175,4854 +2477,4577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>RECOGIDA SELECTIVA EN EL ECOPARQUE</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja75">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.5703125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="3" min="3" max="10"/>
-    <col width="10.28515625" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="3" min="12" max="12"/>
-    <col width="9.85546875" customWidth="1" style="3" min="13" max="13"/>
-    <col width="9.140625" customWidth="1" style="3" min="14" max="14"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="3" min="15" max="15"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>1. Entradas por día de la semana y mes en el Ecoparque de Vara de Quart. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="10" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="10" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="23">
         <f>SUM(B5:B11)</f>
-        <v/>
-      </c>
-      <c r="C4" s="23" t="n">
+        <v>43812</v>
+      </c>
+      <c r="C4" s="23">
         <v>3668</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="23">
         <v>3306</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="23">
         <v>3353</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="23">
         <v>3101</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="23">
         <v>3540</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="23">
         <v>3950</v>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="23">
         <v>4078</v>
       </c>
-      <c r="J4" s="23" t="n">
+      <c r="J4" s="23">
         <v>3889</v>
       </c>
-      <c r="K4" s="23" t="n">
+      <c r="K4" s="23">
         <v>4076</v>
       </c>
-      <c r="L4" s="23" t="n">
+      <c r="L4" s="23">
         <v>3684</v>
       </c>
-      <c r="M4" s="23" t="n">
+      <c r="M4" s="23">
         <v>3904</v>
       </c>
-      <c r="N4" s="23" t="n">
+      <c r="N4" s="23">
         <v>3263</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="11">
         <f>SUM(C5:N5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="11" t="n">
+        <v>7239</v>
+      </c>
+      <c r="C5" s="11">
         <v>778</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>563</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>503</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>230</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>629</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="11">
         <v>651</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>801</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>640</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="11">
         <v>683</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="11">
         <v>651</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="11">
         <v>642</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="11">
         <v>468</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(C6:N6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
+        <f t="shared" ref="B6:B11" si="0">SUM(C6:N6)</f>
+        <v>7356</v>
+      </c>
+      <c r="C6" s="7">
         <v>705</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>514</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="7">
         <v>536</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>602</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>611</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="7">
         <v>653</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>600</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>663</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="7">
         <v>583</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="7">
         <v>708</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="7">
         <v>569</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="7">
         <v>612</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="11">
-        <f>SUM(C7:N7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>7271</v>
+      </c>
+      <c r="C7" s="11">
         <v>574</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>498</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>644</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>465</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>708</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="11">
         <v>627</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="11">
         <v>616</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>788</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>644</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="11">
         <v>642</v>
       </c>
-      <c r="M7" s="11" t="n">
+      <c r="M7" s="11">
         <v>635</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="11">
         <v>430</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(C8:N8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>7158</v>
+      </c>
+      <c r="C8" s="7">
         <v>584</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>514</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>603</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>472</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>477</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>726</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>665</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="7">
         <v>727</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="7">
         <v>611</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="7">
         <v>433</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="7">
         <v>725</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="7">
         <v>621</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="11">
-        <f>SUM(C9:N9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>6605</v>
+      </c>
+      <c r="C9" s="11">
         <v>357</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>540</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>552</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>486</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>501</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>643</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>569</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>567</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>744</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="11">
         <v>538</v>
       </c>
-      <c r="M9" s="11" t="n">
+      <c r="M9" s="11">
         <v>573</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="11">
         <v>535</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B10" s="7">
-        <f>SUM(C10:N10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>6438</v>
+      </c>
+      <c r="C10" s="7">
         <v>545</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>543</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>411</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>662</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>473</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>466</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>640</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>411</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="7">
         <v>633</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="7">
         <v>507</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="7">
         <v>565</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="7">
         <v>582</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="11">
-        <f>SUM(C11:N11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="11" t="n">
+        <f t="shared" si="0"/>
+        <v>1745</v>
+      </c>
+      <c r="C11" s="11">
         <v>125</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>134</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>104</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="11">
         <v>184</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>141</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="11">
         <v>184</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="11">
         <v>187</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>93</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="11">
         <v>178</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="11">
         <v>205</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="11">
         <v>195</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>Media entradas/día</t>
-        </is>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>120.6942148760331</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>122.2666666666667</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>118.0714285714286</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>108.1612903225806</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>103.3666666666667</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>114.1935483870968</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>131.6666666666667</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>131.5483870967742</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <v>125.4516129032258</v>
-      </c>
-      <c r="K12" s="21" t="n">
-        <v>135.8666666666667</v>
-      </c>
-      <c r="L12" s="21" t="n">
-        <v>118.8387096774194</v>
-      </c>
-      <c r="M12" s="21" t="n">
-        <v>130.1333333333333</v>
-      </c>
-      <c r="N12" s="21" t="n">
-        <v>108.7666666666667</v>
-      </c>
-      <c r="O12" s="20" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
-        </is>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21">
+        <v>120.69421487603306</v>
+      </c>
+      <c r="C12" s="21">
+        <v>122.26666666666667</v>
+      </c>
+      <c r="D12" s="21">
+        <v>118.07142857142857</v>
+      </c>
+      <c r="E12" s="21">
+        <v>108.16129032258064</v>
+      </c>
+      <c r="F12" s="21">
+        <v>103.36666666666666</v>
+      </c>
+      <c r="G12" s="21">
+        <v>114.19354838709677</v>
+      </c>
+      <c r="H12" s="21">
+        <v>131.66666666666666</v>
+      </c>
+      <c r="I12" s="21">
+        <v>131.54838709677421</v>
+      </c>
+      <c r="J12" s="21">
+        <v>125.45161290322581</v>
+      </c>
+      <c r="K12" s="21">
+        <v>135.86666666666667</v>
+      </c>
+      <c r="L12" s="21">
+        <v>118.83870967741936</v>
+      </c>
+      <c r="M12" s="21">
+        <v>130.13333333333333</v>
+      </c>
+      <c r="N12" s="21">
+        <v>108.76666666666667</v>
+      </c>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="69" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja76">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja76"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="3" min="1" max="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja79">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="34.42578125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="3" min="2" max="14"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>2. Productos entrados en el Ecoparque de Vara de Quart por mes y tipo de residuo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="19" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="19" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="19" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="19" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="19" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="19" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="19" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="19" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="19" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="19" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="29" t="inlineStr">
-        <is>
-          <t>Unidades</t>
-        </is>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="23">
         <f>SUM(B5:B26)</f>
-        <v/>
+        <v>80915</v>
       </c>
       <c r="C4" s="23">
-        <f>SUM(C5:C26)</f>
-        <v/>
+        <f t="shared" ref="C4:N4" si="0">SUM(C5:C26)</f>
+        <v>6119</v>
       </c>
       <c r="D4" s="23">
-        <f>SUM(D5:D26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5564</v>
       </c>
       <c r="E4" s="23">
-        <f>SUM(E5:E26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5166</v>
       </c>
       <c r="F4" s="23">
-        <f>SUM(F5:F26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5945</v>
       </c>
       <c r="G4" s="23">
-        <f>SUM(G5:G26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4860</v>
       </c>
       <c r="H4" s="23">
-        <f>SUM(H5:H26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6326</v>
       </c>
       <c r="I4" s="23">
-        <f>SUM(I5:I26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6055</v>
       </c>
       <c r="J4" s="23">
-        <f>SUM(J5:J26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6616</v>
       </c>
       <c r="K4" s="23">
-        <f>SUM(K5:K26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5786</v>
       </c>
       <c r="L4" s="23">
-        <f>SUM(L5:L26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5151</v>
       </c>
       <c r="M4" s="23">
-        <f>SUM(M5:M26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6374</v>
       </c>
       <c r="N4" s="23">
-        <f>SUM(N5:N26)</f>
-        <v/>
-      </c>
-      <c r="P4" s="14" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>RAEES</t>
-        </is>
+        <f t="shared" si="0"/>
+        <v>16953</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="11">
-        <f>SUM(C5:N5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="11" t="n">
+        <f t="shared" ref="B5:B26" si="1">SUM(C5:N5)</f>
+        <v>28563</v>
+      </c>
+      <c r="C5" s="11">
         <v>2204</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>1978</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>2016</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>2244</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>1904</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="11">
         <v>2292</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>2534</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>2926</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="11">
         <v>2836</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="11">
         <v>2214</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="11">
         <v>2567</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="11">
         <v>2848</v>
       </c>
-      <c r="P5" s="14" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Pilas</t>
-        </is>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(C6:N6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>25379</v>
+      </c>
+      <c r="C6" s="7">
         <v>1191</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>1098</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="7">
         <v>945</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>924</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>885</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="7">
         <v>1441</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>1553</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>1365</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="7">
         <v>1118</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="7">
         <v>1063</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="7">
         <v>1516</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="7">
         <v>12280</v>
       </c>
     </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Voluminosos</t>
-        </is>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="11">
-        <f>SUM(C7:N7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>4329</v>
+      </c>
+      <c r="C7" s="11">
         <v>452</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>160</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>307</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>322</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>433</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="11">
         <v>372</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="11">
         <v>373</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>743</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>334</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="11">
         <v>223</v>
       </c>
-      <c r="M7" s="11" t="n">
+      <c r="M7" s="11">
         <v>339</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Cápsulas café</t>
-        </is>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(C8:N8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>4223</v>
+      </c>
+      <c r="C8" s="7">
         <v>330</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>753</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>300</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>910</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>230</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>556</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>78</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="7">
         <v>295</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="7">
         <v>85</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="7">
         <v>265</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="7">
         <v>265</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>Fluorescentes y bombillas</t>
-        </is>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="11">
-        <f>SUM(C9:N9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>3335</v>
+      </c>
+      <c r="C9" s="11">
         <v>295</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>206</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>204</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>428</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>232</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>287</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>276</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>170</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>233</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="11">
         <v>346</v>
       </c>
-      <c r="M9" s="11" t="n">
+      <c r="M9" s="11">
         <v>386</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Toner</t>
-        </is>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="7">
-        <f>SUM(C10:N10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>3027</v>
+      </c>
+      <c r="C10" s="7">
         <v>649</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>150</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>243</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>266</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>178</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>187</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>244</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>135</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="7">
         <v>155</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="7">
         <v>182</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="7">
         <v>371</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="7">
         <v>267</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Colchones</t>
-        </is>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="11">
-        <f>SUM(C11:N11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>2402</v>
+      </c>
+      <c r="C11" s="11">
         <v>196</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>206</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>212</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="11">
         <v>160</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>205</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="11">
         <v>218</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="11">
         <v>234</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>192</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="11">
         <v>217</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="11">
         <v>184</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="11">
         <v>214</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Radiografías</t>
-        </is>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="7">
-        <f>SUM(C12:N12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>2379</v>
+      </c>
+      <c r="C12" s="7">
         <v>200</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>166</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>298</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>155</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="7">
         <v>200</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>198</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>220</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="7">
         <v>92</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="7">
         <v>238</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="7">
         <v>146</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="7">
         <v>208</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="7">
         <v>258</v>
       </c>
-      <c r="P12" s="14" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>Acolchados</t>
-        </is>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="11">
-        <f>SUM(C13:N13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="C13" s="11">
         <v>197</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>205</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>148</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>82</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>175</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="11">
         <v>164</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="11">
         <v>187</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>218</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="11">
         <v>207</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="11">
         <v>164</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="11">
         <v>162</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="11">
         <v>134</v>
       </c>
-      <c r="P13" s="14" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>Envases ligeros</t>
-        </is>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B14" s="7">
-        <f>SUM(C14:N14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>1530</v>
+      </c>
+      <c r="C14" s="7">
         <v>152</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>180</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="7">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>94</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="7">
         <v>188</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="7">
         <v>234</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="7">
         <v>110</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="7">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="7">
         <v>100</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="7">
         <v>128</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="7">
         <v>113</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="7">
         <v>115</v>
       </c>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="11">
-        <f>SUM(C15:N15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>1299</v>
+      </c>
+      <c r="C15" s="11">
         <v>104</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>94</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>112</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>101</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>78</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="11">
         <v>100</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="11">
         <v>130</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="11">
         <v>213</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="11">
         <v>90</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="11">
         <v>89</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="11">
         <v>91</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="11">
         <v>97</v>
       </c>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>Mezcla de químicos</t>
-        </is>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="7">
-        <f>SUM(C16:N16)</f>
-        <v/>
-      </c>
-      <c r="C16" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="C16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>108</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="7">
         <v>200</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="7">
         <v>150</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>20</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="7">
         <v>18</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="7">
         <v>13</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>22</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="7">
         <v>15</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="7">
         <v>37</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="7">
         <v>2</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="7">
         <v>10</v>
       </c>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>Neumáticos</t>
-        </is>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="11">
-        <f>SUM(C17:N17)</f>
-        <v/>
-      </c>
-      <c r="C17" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="C17" s="11">
         <v>30</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>38</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>28</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>37</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="11">
         <v>36</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="11">
         <v>40</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="J17" s="11">
         <v>46</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="K17" s="11">
         <v>20</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="11">
         <v>34</v>
       </c>
-      <c r="M17" s="11" t="n">
+      <c r="M17" s="11">
         <v>49</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="11">
         <v>22</v>
       </c>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>Aerosoles</t>
-        </is>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B18" s="7">
-        <f>SUM(C18:N18)</f>
-        <v/>
-      </c>
-      <c r="C18" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="C18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="7">
         <v>22</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="7">
         <v>17</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>11</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="7">
         <v>33</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="7">
         <v>76</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="7">
         <v>16</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="7">
         <v>15</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="7">
         <v>37</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="7">
         <v>20</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="7">
         <v>31</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="7">
         <v>28</v>
       </c>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>Baterías</t>
-        </is>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="11">
-        <f>SUM(C19:N19)</f>
-        <v/>
-      </c>
-      <c r="C19" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="C19" s="11">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>11</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>16</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>9</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="11">
         <v>22</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="11">
         <v>25</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="11">
         <v>46</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="11">
         <v>18</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="11">
         <v>20</v>
       </c>
-      <c r="M19" s="11" t="n">
+      <c r="M19" s="11">
         <v>24</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="11">
         <v>22</v>
       </c>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="9" t="inlineStr">
-        <is>
-          <t>Palets UTE Hornillos</t>
-        </is>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="7">
-        <f>SUM(C20:N20)</f>
-        <v/>
-      </c>
-      <c r="C20" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="C20" s="7">
         <v>5</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>8</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="7">
         <v>18</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="7">
         <v>2</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="7">
         <v>92</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>3</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="7">
         <v>6</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="7">
         <v>52</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="7">
         <v>7</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="7">
         <v>6</v>
       </c>
-      <c r="N20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>Envases de RP (Plástico)</t>
-        </is>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="11">
-        <f>SUM(C21:N21)</f>
-        <v/>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
         <v>150</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="n">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>42</v>
       </c>
-      <c r="K21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>Envases vidrio</t>
-        </is>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="7">
-        <f>SUM(C22:N22)</f>
-        <v/>
-      </c>
-      <c r="C22" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="C22" s="7">
         <v>38</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="7">
         <v>8</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="7">
         <v>15</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>30</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="7">
         <v>13</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="7">
         <v>6</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="7">
         <v>10</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="7">
         <v>11</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="7">
         <v>17</v>
       </c>
-      <c r="M22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Extintores</t>
-        </is>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="11">
-        <f>SUM(C23:N23)</f>
-        <v/>
-      </c>
-      <c r="C23" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>20</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="11">
         <v>11</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>9</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>25</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="11">
         <v>14</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="11">
         <v>8</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="11">
         <v>11</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="11">
         <v>9</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="11">
         <v>7</v>
       </c>
-      <c r="M23" s="11" t="n">
+      <c r="M23" s="11">
         <v>16</v>
       </c>
-      <c r="N23" s="11" t="n">
+      <c r="N23" s="11">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="3">
-      <c r="A24" s="9" t="inlineStr">
-        <is>
-          <t>Bombonas de butano y camping gas</t>
-        </is>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="7">
-        <f>SUM(C24:N24)</f>
-        <v/>
-      </c>
-      <c r="C24" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="7">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="7">
         <v>9</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="7">
         <v>15</v>
       </c>
-      <c r="H24" s="7" t="n">
+      <c r="H24" s="7">
         <v>5</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="7">
         <v>3</v>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="7">
         <v>13</v>
       </c>
-      <c r="K24" s="7" t="n">
+      <c r="K24" s="7">
         <v>7</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="L24" s="7">
         <v>4</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="7">
         <v>5</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="N24" s="7">
         <v>3</v>
       </c>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="3">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Termómetros mercurio</t>
-        </is>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="11">
-        <f>SUM(C25:N25)</f>
-        <v/>
-      </c>
-      <c r="C25" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="11">
         <v>8</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="11">
         <v>2</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="11">
         <v>3</v>
       </c>
-      <c r="G25" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="n">
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
         <v>2</v>
       </c>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="11">
         <v>1</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="11">
         <v>3</v>
       </c>
-      <c r="L25" s="11" t="n">
+      <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="M25" s="11" t="n"/>
-      <c r="N25" s="11" t="n">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11">
         <v>5</v>
       </c>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="3">
-      <c r="A26" s="9" t="inlineStr">
-        <is>
-          <t>Envases de RP (Metálicos)</t>
-        </is>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="7">
-        <f>SUM(C26:N26)</f>
-        <v/>
-      </c>
-      <c r="C26" s="7" t="n">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="n">
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
         <v>6</v>
       </c>
-      <c r="F26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="n">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
         <v>1</v>
       </c>
-      <c r="L26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="n">
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
         <v>9</v>
       </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="3">
-      <c r="A27" s="32" t="inlineStr">
-        <is>
-          <t>Peso (en kilogramos)</t>
-        </is>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="31">
-        <f>SUM(C27:N27)</f>
-        <v/>
+        <f t="shared" ref="B27" si="2">SUM(C27:N27)</f>
+        <v>4809007</v>
       </c>
       <c r="C27" s="31">
-        <f>SUM(C28:C36)</f>
-        <v/>
+        <f t="shared" ref="C27:N27" si="3">SUM(C28:C36)</f>
+        <v>389726</v>
       </c>
       <c r="D27" s="31">
-        <f>SUM(D28:D36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>367359</v>
       </c>
       <c r="E27" s="31">
-        <f>SUM(E28:E36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>366465</v>
       </c>
       <c r="F27" s="31">
-        <f>SUM(F28:F36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>323946</v>
       </c>
       <c r="G27" s="31">
-        <f>SUM(G28:G36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>411700</v>
       </c>
       <c r="H27" s="31">
-        <f>SUM(H28:H36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>437567</v>
       </c>
       <c r="I27" s="31">
-        <f>SUM(I28:I36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>414044</v>
       </c>
       <c r="J27" s="31">
-        <f>SUM(J28:J36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>367655</v>
       </c>
       <c r="K27" s="31">
-        <f>SUM(K28:K36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>427214</v>
       </c>
       <c r="L27" s="31">
-        <f>SUM(L28:L36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>429595</v>
       </c>
       <c r="M27" s="31">
-        <f>SUM(M28:M36)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>490232</v>
       </c>
       <c r="N27" s="31">
-        <f>SUM(N28:N36)</f>
-        <v/>
-      </c>
-      <c r="P27" s="14" t="n"/>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="3">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>Escombros</t>
-        </is>
+        <f t="shared" si="3"/>
+        <v>383504</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="7">
-        <f>SUM(C28:N28)</f>
-        <v/>
-      </c>
-      <c r="C28" s="7" t="n">
+        <f t="shared" ref="B28:B36" si="4">SUM(C28:N28)</f>
+        <v>3851959</v>
+      </c>
+      <c r="C28" s="7">
         <v>312127</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="7">
         <v>295508</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="7">
         <v>296215</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="7">
         <v>260595</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="7">
         <v>337073</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="7">
         <v>355761</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="7">
         <v>334407</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="7">
         <v>291098</v>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="7">
         <v>342306</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L28" s="7">
         <v>339481</v>
       </c>
-      <c r="M28" s="7" t="n">
+      <c r="M28" s="7">
         <v>390205</v>
       </c>
-      <c r="N28" s="7" t="n">
+      <c r="N28" s="7">
         <v>297183</v>
       </c>
-      <c r="P28" s="14" t="n"/>
-      <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="3">
-      <c r="A29" s="18" t="inlineStr">
-        <is>
-          <t>Maderas</t>
-        </is>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B29" s="11">
-        <f>SUM(C29:N29)</f>
-        <v/>
-      </c>
-      <c r="C29" s="11" t="n">
+        <f t="shared" si="4"/>
+        <v>539034</v>
+      </c>
+      <c r="C29" s="11">
         <v>45868</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="11">
         <v>40500</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="11">
         <v>37612</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="11">
         <v>35704</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>44206</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="11">
         <v>46926</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="11">
         <v>46976</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="11">
         <v>42988</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="11">
         <v>49404</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="11">
         <v>51617</v>
       </c>
-      <c r="M29" s="11" t="n">
+      <c r="M29" s="11">
         <v>51243</v>
       </c>
-      <c r="N29" s="11" t="n">
+      <c r="N29" s="11">
         <v>45990</v>
       </c>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="3">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>Voluminosos</t>
-        </is>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B30" s="7">
-        <f>SUM(C30:N30)</f>
-        <v/>
-      </c>
-      <c r="C30" s="7" t="n">
+        <f t="shared" si="4"/>
+        <v>276659</v>
+      </c>
+      <c r="C30" s="7">
         <v>22004</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="7">
         <v>21375</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="7">
         <v>20557</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="7">
         <v>18426</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="7">
         <v>20918</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="7">
         <v>22152</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="7">
         <v>21621</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="7">
         <v>22840</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="K30" s="7">
         <v>23465</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="7">
         <v>24833</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="7">
         <v>30928</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="7">
         <v>27540</v>
       </c>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="3">
-      <c r="A31" s="18" t="inlineStr">
-        <is>
-          <t>Metales</t>
-        </is>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="11">
-        <f>SUM(C31:N31)</f>
-        <v/>
-      </c>
-      <c r="C31" s="11" t="n">
+        <f t="shared" si="4"/>
+        <v>48230</v>
+      </c>
+      <c r="C31" s="11">
         <v>3725</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="11">
         <v>3236</v>
       </c>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="11">
         <v>3433</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="11">
         <v>2624</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>2911</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="11">
         <v>3990</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="11">
         <v>4414</v>
       </c>
-      <c r="J31" s="11" t="n">
+      <c r="J31" s="11">
         <v>4267</v>
       </c>
-      <c r="K31" s="11" t="n">
+      <c r="K31" s="11">
         <v>3867</v>
       </c>
-      <c r="L31" s="11" t="n">
+      <c r="L31" s="11">
         <v>4230</v>
       </c>
-      <c r="M31" s="11" t="n">
+      <c r="M31" s="11">
         <v>5870</v>
       </c>
-      <c r="N31" s="11" t="n">
+      <c r="N31" s="11">
         <v>5663</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="3">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Papel/Cartón</t>
-        </is>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="7">
-        <f>SUM(C32:N32)</f>
-        <v/>
-      </c>
-      <c r="C32" s="7" t="n">
+        <f t="shared" si="4"/>
+        <v>40385</v>
+      </c>
+      <c r="C32" s="7">
         <v>1785</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="7">
         <v>2818</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="7">
         <v>3124</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="7">
         <v>2924</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="7">
         <v>2347</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="7">
         <v>4519</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>3446</v>
       </c>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="7">
         <v>3709</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="7">
         <v>3514</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="7">
         <v>3882</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="M32" s="7">
         <v>5213</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="7">
         <v>3104</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="3">
-      <c r="A33" s="18" t="inlineStr">
-        <is>
-          <t>Podas</t>
-        </is>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="11">
-        <f>SUM(C33:N33)</f>
-        <v/>
-      </c>
-      <c r="C33" s="11" t="n">
+        <f t="shared" si="4"/>
+        <v>38114</v>
+      </c>
+      <c r="C33" s="11">
         <v>2520</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="11">
         <v>2711</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="11">
         <v>4148</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="11">
         <v>2613</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>2815</v>
       </c>
-      <c r="H33" s="11" t="n">
+      <c r="H33" s="11">
         <v>2766</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="11">
         <v>1973</v>
       </c>
-      <c r="J33" s="11" t="n">
+      <c r="J33" s="11">
         <v>2000</v>
       </c>
-      <c r="K33" s="11" t="n">
+      <c r="K33" s="11">
         <v>3735</v>
       </c>
-      <c r="L33" s="11" t="n">
+      <c r="L33" s="11">
         <v>4215</v>
       </c>
-      <c r="M33" s="11" t="n">
+      <c r="M33" s="11">
         <v>5498</v>
       </c>
-      <c r="N33" s="11" t="n">
+      <c r="N33" s="11">
         <v>3120</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="3">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Vídrios</t>
-        </is>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="7">
-        <f>SUM(C34:N34)</f>
-        <v/>
-      </c>
-      <c r="C34" s="7" t="n">
+        <f t="shared" si="4"/>
+        <v>7621</v>
+      </c>
+      <c r="C34" s="7">
         <v>1162</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="7">
         <v>620</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="7">
         <v>885</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="7">
         <v>472</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="7">
         <v>853</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="7">
         <v>851</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="7">
         <v>621</v>
       </c>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="7">
         <v>110</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="K34" s="7">
         <v>219</v>
       </c>
-      <c r="L34" s="7" t="n">
+      <c r="L34" s="7">
         <v>670</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="M34" s="7">
         <v>703</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="N34" s="7">
         <v>455</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="3">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>Pinturas</t>
-        </is>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B35" s="11">
-        <f>SUM(C35:N35)</f>
-        <v/>
-      </c>
-      <c r="C35" s="11" t="n">
+        <f t="shared" si="4"/>
+        <v>3698</v>
+      </c>
+      <c r="C35" s="11">
         <v>240</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="11">
         <v>267</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="11">
         <v>226</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="11">
         <v>329</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>337</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="11">
         <v>350</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="11">
         <v>369</v>
       </c>
-      <c r="J35" s="11" t="n">
+      <c r="J35" s="11">
         <v>309</v>
       </c>
-      <c r="K35" s="11" t="n">
+      <c r="K35" s="11">
         <v>443</v>
       </c>
-      <c r="L35" s="11" t="n">
+      <c r="L35" s="11">
         <v>324</v>
       </c>
-      <c r="M35" s="11" t="n">
+      <c r="M35" s="11">
         <v>241</v>
       </c>
-      <c r="N35" s="11" t="n">
+      <c r="N35" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="3">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Aceites</t>
-        </is>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="7">
-        <f>SUM(C36:N36)</f>
-        <v/>
-      </c>
-      <c r="C36" s="7" t="n">
+        <f t="shared" si="4"/>
+        <v>3307</v>
+      </c>
+      <c r="C36" s="7">
         <v>295</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="7">
         <v>324</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="7">
         <v>265</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="7">
         <v>259</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="7">
         <v>240</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="H36" s="7">
         <v>252</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="7">
         <v>217</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="7">
         <v>334</v>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="7">
         <v>261</v>
       </c>
-      <c r="L36" s="7" t="n">
+      <c r="L36" s="7">
         <v>343</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="M36" s="7">
         <v>331</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="7">
         <v>186</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: RAEES Residuos de aparatos eléctricos y electrónicos. </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
-        </is>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" horizontalDpi="300" verticalDpi="300"/>
+  <sortState ref="A31:O39">
+    <sortCondition descending="1" ref="B31:B39"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja78">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.85546875" customWidth="1" style="3" min="2" max="14"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="14" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>3. Movimientos de contenedores en el Ecoparque de Vara de Quart por mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="25" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t>Contenedores</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="10" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="10" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t>Contenedores</t>
-        </is>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="25"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="23">
-        <f>SUM(C4:N4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="23" t="n">
+        <f t="shared" ref="B4:B34" si="0">SUM(C4:N4)</f>
+        <v>2004</v>
+      </c>
+      <c r="C4" s="23">
         <v>163</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="23">
         <v>164</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="23">
         <v>163</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="23">
         <v>137</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="23">
         <v>181</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="23">
         <v>167</v>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="23">
         <v>177</v>
       </c>
-      <c r="J4" s="23" t="n">
+      <c r="J4" s="23">
         <v>143</v>
       </c>
-      <c r="K4" s="23" t="n">
+      <c r="K4" s="23">
         <v>191</v>
       </c>
-      <c r="L4" s="23" t="n">
+      <c r="L4" s="23">
         <v>189</v>
       </c>
-      <c r="M4" s="23" t="n">
+      <c r="M4" s="23">
         <v>187</v>
       </c>
-      <c r="N4" s="23" t="n">
+      <c r="N4" s="23">
         <v>142</v>
       </c>
-      <c r="O4" s="26" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Materiales (kg)</t>
-        </is>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="24">
-        <f>SUM(C5:N5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8404748</v>
       </c>
       <c r="C5" s="24">
         <f>SUM(C6:C35)</f>
-        <v/>
+        <v>687211</v>
       </c>
       <c r="D5" s="24">
-        <f>SUM(D6:D35)</f>
-        <v/>
+        <f t="shared" ref="D5:N5" si="1">SUM(D6:D35)</f>
+        <v>657717</v>
       </c>
       <c r="E5" s="24">
-        <f>SUM(E6:E35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>671112</v>
       </c>
       <c r="F5" s="24">
-        <f>SUM(F6:F35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>577167</v>
       </c>
       <c r="G5" s="24">
-        <f>SUM(G6:G35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>787886</v>
       </c>
       <c r="H5" s="24">
-        <f>SUM(H6:H35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>733366</v>
       </c>
       <c r="I5" s="24">
-        <f>SUM(I6:I35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>749304</v>
       </c>
       <c r="J5" s="24">
-        <f>SUM(J6:J35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>792882</v>
       </c>
       <c r="K5" s="24">
-        <f>SUM(K6:K35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>739055</v>
       </c>
       <c r="L5" s="24">
-        <f>SUM(L6:L35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>718869</v>
       </c>
       <c r="M5" s="24">
-        <f>SUM(M6:M35)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>748722</v>
       </c>
       <c r="N5" s="24">
-        <f>SUM(N6:N35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Escombros</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>541457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(C6:N6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>5463000</v>
+      </c>
+      <c r="C6" s="7">
         <v>442210</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>423140</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="7">
         <v>431590</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>369330</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>521810</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="7">
         <v>487670</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>493480</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>568800</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="7">
         <v>452200</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="7">
         <v>445830</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="7">
         <v>489440</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="7">
         <v>337500</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Madera</t>
-        </is>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="12">
-        <f>SUM(C7:N7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>1546020</v>
+      </c>
+      <c r="C7" s="12">
         <v>138100</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>116900</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>119800</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>109580</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="12">
         <v>143270</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>133210</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="12">
         <v>135110</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="12">
         <v>120180</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="12">
         <v>148800</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="12">
         <v>150410</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="12">
         <v>119840</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="12">
         <v>110820</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Voluminosos</t>
-        </is>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(C8:N8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>608620</v>
+      </c>
+      <c r="C8" s="7">
         <v>51680</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>52040</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>48300</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>42320</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>54660</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>53680</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>50940</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="7">
         <v>46120</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="7">
         <v>55960</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="7">
         <v>50860</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="7">
         <v>59300</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="7">
         <v>42760</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>RAEEs</t>
-        </is>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="12">
-        <f>SUM(C9:N9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>239507</v>
+      </c>
+      <c r="C9" s="12">
         <v>11381</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>20667</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>22175</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>18680</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="12">
         <v>23359</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>16038</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="12">
         <v>23187</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="12">
         <v>23007</v>
       </c>
-      <c r="K9" s="12" t="n">
+      <c r="K9" s="12">
         <v>26311</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="12">
         <v>18355</v>
       </c>
-      <c r="M9" s="12" t="n">
+      <c r="M9" s="12">
         <v>23050</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="12">
         <v>13297</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Acolchados</t>
-        </is>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="7">
-        <f>SUM(C10:N10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>130220</v>
+      </c>
+      <c r="C10" s="7">
         <v>13220</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>11940</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>10180</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>4160</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>11260</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>11180</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>11180</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>9360</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="7">
         <v>13400</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="7">
         <v>13040</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="7">
         <v>12080</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="7">
         <v>9220</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Papel/cartón</t>
-        </is>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="12">
-        <f>SUM(C11:N11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>96820</v>
+      </c>
+      <c r="C11" s="12">
         <v>5340</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="12">
         <v>6490</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="12">
         <v>8020</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="12">
         <v>8820</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="12">
         <v>8330</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="12">
         <v>10580</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="12">
         <v>9230</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="12">
         <v>8940</v>
       </c>
-      <c r="K11" s="12" t="n">
+      <c r="K11" s="12">
         <v>8810</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="12">
         <v>7120</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="12">
         <v>10160</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="12">
         <v>4980</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Poda</t>
-        </is>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="7">
-        <f>SUM(C12:N12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>83340</v>
+      </c>
+      <c r="C12" s="7">
         <v>6720</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>4040</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>13460</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>5000</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="7">
         <v>3660</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>5580</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>4520</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="7">
         <v>3520</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="7">
         <v>9660</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="7">
         <v>8140</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="7">
         <v>11140</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="7">
         <v>7900</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>Metal</t>
-        </is>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="12">
-        <f>SUM(C13:N13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>64963</v>
+      </c>
+      <c r="C13" s="12">
         <v>6710</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="12">
         <v>5790</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>4030</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>4170</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="12">
         <v>4170</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="12">
         <v>3890</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="12">
         <v>5550</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="12">
         <v>4500</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="12">
         <v>6780</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="12">
         <v>6310</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="12">
         <v>7523</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="12">
         <v>5540</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Colchones</t>
-        </is>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="7">
-        <f>SUM(C14:N14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>58020</v>
+      </c>
+      <c r="C14" s="7">
         <v>4600</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>4960</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="7">
         <v>4440</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>3720</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="7">
         <v>4420</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="7">
         <v>5620</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="7">
         <v>5300</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="7">
         <v>3560</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="7">
         <v>5180</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="7">
         <v>7320</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="7">
         <v>5120</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="7">
         <v>3780</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Envases ligeros</t>
-        </is>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="B15" s="12">
-        <f>SUM(C15:N15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>47935</v>
+      </c>
+      <c r="C15" s="12">
         <v>6050</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="12">
         <v>5270</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="12">
         <v>4150</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="12">
         <v>3200</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="12">
         <v>4330</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="12">
         <v>2210</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="12">
         <v>2890</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="12">
         <v>2470</v>
       </c>
-      <c r="K15" s="12" t="n">
+      <c r="K15" s="12">
         <v>4720</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="12">
         <v>4130</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="12">
         <v>4625</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="12">
         <v>3890</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="7">
-        <f>SUM(C16:N16)</f>
-        <v/>
-      </c>
-      <c r="C16" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>13435</v>
+      </c>
+      <c r="C16" s="7">
         <v>880</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>620</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="7">
         <v>795</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="7">
         <v>1360</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>1390</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="7">
         <v>1530</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="7">
         <v>1645</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>1670</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="7">
         <v>1140</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="7">
         <v>810</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="7">
         <v>775</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="7">
         <v>820</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>Pinturas</t>
-        </is>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="12">
-        <f>SUM(C17:N17)</f>
-        <v/>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>12475</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
         <v>1421</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="12">
         <v>1673</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>908</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="12">
         <v>2385</v>
       </c>
-      <c r="H17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="n">
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
         <v>1858</v>
       </c>
-      <c r="J17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12" t="n">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
         <v>1032</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="L17" s="12">
         <v>1084</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="M17" s="12">
         <v>2114</v>
       </c>
-      <c r="N17" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>Tóner</t>
-        </is>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="B18" s="7">
-        <f>SUM(C18:N18)</f>
-        <v/>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>7471</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
         <v>1091</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="7">
         <v>254</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>2196</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="7">
         <v>496</v>
       </c>
-      <c r="H18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="n">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
         <v>995</v>
       </c>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="7" t="n">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
         <v>612</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="7">
         <v>385</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="7">
         <v>1442</v>
       </c>
-      <c r="N18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>Mezcla de químicos</t>
-        </is>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="12">
-        <f>SUM(C19:N19)</f>
-        <v/>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>5614</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
         <v>664</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="12">
         <v>659</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="12">
         <v>696</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="12">
         <v>503</v>
       </c>
-      <c r="H19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12" t="n">
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <v>613</v>
       </c>
-      <c r="J19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12" t="n">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
         <v>997</v>
       </c>
-      <c r="L19" s="12" t="n">
+      <c r="L19" s="12">
         <v>693</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="12">
         <v>789</v>
       </c>
-      <c r="N19" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>Pilas</t>
-        </is>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="B20" s="7">
-        <f>SUM(C20:N20)</f>
-        <v/>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>5381</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
         <v>775</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="7">
         <v>248</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="7">
         <v>1320</v>
       </c>
-      <c r="G20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <v>1264</v>
       </c>
-      <c r="J20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="n">
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
         <v>1512</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="7">
         <v>262</v>
       </c>
-      <c r="M20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>Neumáticos</t>
-        </is>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="12">
-        <f>SUM(C21:N21)</f>
-        <v/>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>4340</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
         <v>2360</v>
       </c>
-      <c r="H21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12" t="n">
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>1980</v>
       </c>
-      <c r="M21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>Aceite de motor</t>
-        </is>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="B22" s="7">
-        <f>SUM(C22:N22)</f>
-        <v/>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>4210</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
         <v>340</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="n">
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
         <v>420</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="7">
         <v>580</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="7">
         <v>700</v>
       </c>
-      <c r="I22" s="7" t="n"/>
-      <c r="J22" s="7" t="n">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
         <v>350</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="7">
         <v>420</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="7">
         <v>700</v>
       </c>
-      <c r="M22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="n">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Fluorescentes</t>
-        </is>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="B23" s="12">
-        <f>SUM(C23:N23)</f>
-        <v/>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>3725</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
         <v>581</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="12">
         <v>358</v>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="12">
         <v>390</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="12">
         <v>346</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="12">
         <v>298</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="12">
         <v>507</v>
       </c>
-      <c r="J23" s="12" t="n">
+      <c r="J23" s="12">
         <v>185</v>
       </c>
-      <c r="K23" s="12" t="n">
+      <c r="K23" s="12">
         <v>357</v>
       </c>
-      <c r="L23" s="12" t="n">
+      <c r="L23" s="12">
         <v>212</v>
       </c>
-      <c r="M23" s="12" t="n">
+      <c r="M23" s="12">
         <v>311</v>
       </c>
-      <c r="N23" s="12" t="n">
+      <c r="N23" s="12">
         <v>180</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="3">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>Baterías</t>
-        </is>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B24" s="7">
-        <f>SUM(C24:N24)</f>
-        <v/>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>3575</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>108</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="7">
         <v>252</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="7">
         <v>354</v>
       </c>
-      <c r="G24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
         <v>708</v>
       </c>
-      <c r="J24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="n">
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
         <v>537</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="L24" s="7">
         <v>898</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="7">
         <v>718</v>
       </c>
-      <c r="N24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="3">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Aceites y grasas</t>
-        </is>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="B25" s="12">
-        <f>SUM(C25:N25)</f>
-        <v/>
-      </c>
-      <c r="C25" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>2870</v>
+      </c>
+      <c r="C25" s="12">
         <v>320</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="12">
         <v>440</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="12">
         <v>320</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="12">
         <v>160</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="12">
         <v>280</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="12">
         <v>400</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="12">
         <v>180</v>
       </c>
-      <c r="J25" s="12" t="n">
+      <c r="J25" s="12">
         <v>220</v>
       </c>
-      <c r="K25" s="12" t="n">
+      <c r="K25" s="12">
         <v>240</v>
       </c>
-      <c r="L25" s="12" t="n">
+      <c r="L25" s="12">
         <v>80</v>
       </c>
-      <c r="M25" s="12" t="n">
+      <c r="M25" s="12">
         <v>160</v>
       </c>
-      <c r="N25" s="12" t="n">
+      <c r="N25" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="3">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>Radiografías</t>
-        </is>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="7">
-        <f>SUM(C26:N26)</f>
-        <v/>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
         <v>167</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="7">
         <v>52</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="7">
         <v>253</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="7">
         <v>103</v>
       </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
         <v>101</v>
       </c>
-      <c r="J26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
         <v>182</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L26" s="7">
         <v>79</v>
       </c>
-      <c r="M26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="3">
-      <c r="A27" s="18" t="inlineStr">
-        <is>
-          <t>Aerosoles</t>
-        </is>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="B27" s="12">
-        <f>SUM(C27:N27)</f>
-        <v/>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
         <v>245</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="12">
         <v>229</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="12">
         <v>77</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" s="12">
         <v>123</v>
       </c>
-      <c r="H27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12" t="n">
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
         <v>152</v>
       </c>
-      <c r="L27" s="12" t="n">
+      <c r="L27" s="12">
         <v>104</v>
       </c>
-      <c r="M27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="3">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>Envases vidrio</t>
-        </is>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="7">
-        <f>SUM(C28:N28)</f>
-        <v/>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="n">
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="3">
-      <c r="A29" s="18" t="inlineStr">
-        <is>
-          <t>Bombonas de butano/propano y camping gas</t>
-        </is>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>780</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="B29" s="12">
-        <f>SUM(C29:N29)</f>
-        <v/>
-      </c>
-      <c r="C29" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
         <v>24</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="12">
         <v>20</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="12">
         <v>30</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="12">
         <v>20</v>
       </c>
-      <c r="H29" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12" t="n">
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <v>30</v>
       </c>
-      <c r="J29" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12" t="n">
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
         <v>40</v>
       </c>
-      <c r="L29" s="12" t="n">
+      <c r="L29" s="12">
         <v>15</v>
       </c>
-      <c r="M29" s="12" t="n">
+      <c r="M29" s="12">
         <v>73</v>
       </c>
-      <c r="N29" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="3">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>Extintores</t>
-        </is>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B30" s="7">
-        <f>SUM(C30:N30)</f>
-        <v/>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>15</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="7">
         <v>20</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="7">
         <v>30</v>
       </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
         <v>15</v>
       </c>
-      <c r="J30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="n">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
         <v>12</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="7">
         <v>15</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="7">
         <v>50</v>
       </c>
-      <c r="N30" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="3">
-      <c r="A31" s="18" t="inlineStr">
-        <is>
-          <t>Envases de RP (Metálicos)</t>
-        </is>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="12">
-        <f>SUM(C31:N31)</f>
-        <v/>
-      </c>
-      <c r="C31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
         <v>47</v>
       </c>
-      <c r="F31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="12" t="n">
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
         <v>36</v>
       </c>
-      <c r="M31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="3">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>Envases de RP (Plástico)</t>
-        </is>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B32" s="7">
-        <f>SUM(C32:N32)</f>
-        <v/>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="n">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="3">
-      <c r="A33" s="18" t="inlineStr">
-        <is>
-          <t>Botellas helio</t>
-        </is>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>42</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B33" s="12">
-        <f>SUM(C33:N33)</f>
-        <v/>
-      </c>
-      <c r="C33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="12" t="n">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N33" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="3">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>Termómetros mercurio</t>
-        </is>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>11</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B34" s="7">
-        <f>SUM(C34:N34)</f>
-        <v/>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="7">
         <v>1</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="3">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>Transporte peligroso</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="n">
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="12">
         <v>2</v>
       </c>
-      <c r="C35" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="n">
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
         <v>2</v>
       </c>
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="12">
         <v>2</v>
       </c>
-      <c r="F35" s="12" t="n">
+      <c r="F35" s="12">
         <v>1</v>
       </c>
-      <c r="G35" s="12" t="n">
+      <c r="G35" s="12">
         <v>1</v>
       </c>
-      <c r="H35" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12" t="n">
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
         <v>1</v>
       </c>
-      <c r="J35" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="12" t="n">
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
         <v>1</v>
       </c>
-      <c r="L35" s="12" t="n">
+      <c r="L35" s="12">
         <v>1</v>
       </c>
-      <c r="M35" s="12" t="n">
+      <c r="M35" s="12">
         <v>1</v>
       </c>
-      <c r="N35" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>Nota: RP (Residuos peligrosos), RAEEs (Residuos de aparatos eléctricos y electrónicos). Los datos no incluyen recogida domiciliaria.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
-        </is>
-      </c>
-      <c r="B37" s="13" t="n"/>
-      <c r="C37" s="13" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="13" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="13" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="13" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
-      <c r="L37" s="13" t="n"/>
-      <c r="M37" s="13" t="n"/>
-      <c r="N37" s="13" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="13" t="n"/>
-      <c r="C41" s="13" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="13" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="13" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="13" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
-      <c r="L41" s="13" t="n"/>
-      <c r="M41" s="13" t="n"/>
-      <c r="N41" s="13" t="n"/>
-    </row>
-    <row r="42" customFormat="1" s="27">
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
-      <c r="E42" s="28" t="n"/>
-      <c r="F42" s="28" t="n"/>
-      <c r="G42" s="28" t="n"/>
-      <c r="H42" s="28" t="n"/>
-      <c r="I42" s="28" t="n"/>
-      <c r="J42" s="28" t="n"/>
-      <c r="K42" s="28" t="n"/>
-      <c r="L42" s="28" t="n"/>
-      <c r="M42" s="28" t="n"/>
-      <c r="N42" s="28" t="n"/>
-    </row>
-    <row r="43" customFormat="1" s="27">
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
-      <c r="E43" s="28" t="n"/>
-      <c r="F43" s="28" t="n"/>
-      <c r="G43" s="28" t="n"/>
-      <c r="H43" s="28" t="n"/>
-      <c r="I43" s="28" t="n"/>
-      <c r="J43" s="28" t="n"/>
-      <c r="K43" s="28" t="n"/>
-      <c r="L43" s="28" t="n"/>
-      <c r="M43" s="28" t="n"/>
-      <c r="N43" s="28" t="n"/>
-    </row>
-    <row r="44" customFormat="1" s="27">
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-      <c r="E44" s="28" t="n"/>
-      <c r="F44" s="28" t="n"/>
-      <c r="G44" s="28" t="n"/>
-      <c r="H44" s="28" t="n"/>
-      <c r="I44" s="28" t="n"/>
-      <c r="J44" s="28" t="n"/>
-      <c r="K44" s="28" t="n"/>
-      <c r="L44" s="28" t="n"/>
-      <c r="M44" s="28" t="n"/>
-      <c r="N44" s="28" t="n"/>
-    </row>
-    <row r="45" customFormat="1" s="27">
-      <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-      <c r="E45" s="28" t="n"/>
-      <c r="F45" s="28" t="n"/>
-      <c r="G45" s="28" t="n"/>
-      <c r="H45" s="28" t="n"/>
-      <c r="I45" s="28" t="n"/>
-      <c r="J45" s="28" t="n"/>
-      <c r="K45" s="28" t="n"/>
-      <c r="L45" s="28" t="n"/>
-      <c r="M45" s="28" t="n"/>
-      <c r="N45" s="28" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="13" t="n"/>
-      <c r="C46" s="13" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="13" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="13" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="13" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
-      <c r="L46" s="13" t="n"/>
-      <c r="M46" s="13" t="n"/>
-      <c r="N46" s="13" t="n"/>
-    </row>
-    <row r="47" customFormat="1" s="27">
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
-      <c r="E47" s="28" t="n"/>
-      <c r="F47" s="28" t="n"/>
-      <c r="G47" s="28" t="n"/>
-      <c r="H47" s="28" t="n"/>
-      <c r="I47" s="28" t="n"/>
-      <c r="J47" s="28" t="n"/>
-      <c r="K47" s="28" t="n"/>
-      <c r="L47" s="28" t="n"/>
-      <c r="M47" s="28" t="n"/>
-      <c r="N47" s="28" t="n"/>
-    </row>
-    <row r="48" customFormat="1" s="25">
-      <c r="B48" s="26" t="n"/>
-      <c r="C48" s="26" t="n"/>
-      <c r="D48" s="26" t="n"/>
-      <c r="E48" s="26" t="n"/>
-      <c r="F48" s="26" t="n"/>
-      <c r="G48" s="26" t="n"/>
-      <c r="H48" s="26" t="n"/>
-      <c r="I48" s="26" t="n"/>
-      <c r="J48" s="26" t="n"/>
-      <c r="K48" s="26" t="n"/>
-      <c r="L48" s="26" t="n"/>
-      <c r="M48" s="26" t="n"/>
-      <c r="N48" s="26" t="n"/>
-    </row>
-    <row r="49" customFormat="1" s="25">
-      <c r="B49" s="26" t="n"/>
-      <c r="C49" s="26" t="n"/>
-      <c r="D49" s="26" t="n"/>
-      <c r="E49" s="26" t="n"/>
-      <c r="F49" s="26" t="n"/>
-      <c r="G49" s="26" t="n"/>
-      <c r="H49" s="26" t="n"/>
-      <c r="I49" s="26" t="n"/>
-      <c r="J49" s="26" t="n"/>
-      <c r="K49" s="26" t="n"/>
-      <c r="L49" s="26" t="n"/>
-      <c r="M49" s="26" t="n"/>
-      <c r="N49" s="26" t="n"/>
-    </row>
-    <row r="50" customFormat="1" s="25">
-      <c r="B50" s="26" t="n"/>
-      <c r="C50" s="26" t="n"/>
-      <c r="D50" s="26" t="n"/>
-      <c r="E50" s="26" t="n"/>
-      <c r="F50" s="26" t="n"/>
-      <c r="G50" s="26" t="n"/>
-      <c r="H50" s="26" t="n"/>
-      <c r="I50" s="26" t="n"/>
-      <c r="J50" s="26" t="n"/>
-      <c r="K50" s="26" t="n"/>
-      <c r="L50" s="26" t="n"/>
-      <c r="M50" s="26" t="n"/>
-      <c r="N50" s="26" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="13" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="13" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="13" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="13" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
-      <c r="L51" s="13" t="n"/>
-      <c r="M51" s="13" t="n"/>
-      <c r="N51" s="13" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="13" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="13" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="13" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="13" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
-      <c r="L52" s="13" t="n"/>
-      <c r="M52" s="13" t="n"/>
-      <c r="N52" s="13" t="n"/>
-    </row>
-    <row r="53" customFormat="1" s="25">
-      <c r="B53" s="26" t="n"/>
-      <c r="C53" s="26" t="n"/>
-      <c r="D53" s="26" t="n"/>
-      <c r="E53" s="26" t="n"/>
-      <c r="F53" s="26" t="n"/>
-      <c r="G53" s="26" t="n"/>
-      <c r="H53" s="26" t="n"/>
-      <c r="I53" s="26" t="n"/>
-      <c r="J53" s="26" t="n"/>
-      <c r="K53" s="26" t="n"/>
-      <c r="L53" s="26" t="n"/>
-      <c r="M53" s="26" t="n"/>
-      <c r="N53" s="26" t="n"/>
-    </row>
-    <row r="54" customFormat="1" s="25">
-      <c r="B54" s="26" t="n"/>
-      <c r="C54" s="26" t="n"/>
-      <c r="D54" s="26" t="n"/>
-      <c r="E54" s="26" t="n"/>
-      <c r="F54" s="26" t="n"/>
-      <c r="G54" s="26" t="n"/>
-      <c r="H54" s="26" t="n"/>
-      <c r="I54" s="26" t="n"/>
-      <c r="J54" s="26" t="n"/>
-      <c r="K54" s="26" t="n"/>
-      <c r="L54" s="26" t="n"/>
-      <c r="M54" s="26" t="n"/>
-      <c r="N54" s="26" t="n"/>
-    </row>
-    <row r="55" customFormat="1" s="25">
-      <c r="B55" s="26" t="n"/>
-      <c r="C55" s="26" t="n"/>
-      <c r="D55" s="26" t="n"/>
-      <c r="E55" s="26" t="n"/>
-      <c r="F55" s="26" t="n"/>
-      <c r="G55" s="26" t="n"/>
-      <c r="H55" s="26" t="n"/>
-      <c r="I55" s="26" t="n"/>
-      <c r="J55" s="26" t="n"/>
-      <c r="K55" s="26" t="n"/>
-      <c r="L55" s="26" t="n"/>
-      <c r="M55" s="26" t="n"/>
-      <c r="N55" s="26" t="n"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1" s="3">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="13" t="n"/>
-      <c r="D56" s="13" t="n"/>
-      <c r="E56" s="13" t="n"/>
-      <c r="F56" s="13" t="n"/>
-      <c r="G56" s="13" t="n"/>
-      <c r="H56" s="13" t="n"/>
-      <c r="I56" s="13" t="n"/>
-      <c r="J56" s="13" t="n"/>
-      <c r="K56" s="13" t="n"/>
-      <c r="L56" s="13" t="n"/>
-      <c r="M56" s="13" t="n"/>
-      <c r="N56" s="13" t="n"/>
-    </row>
-    <row r="57" customFormat="1" s="27">
-      <c r="B57" s="28" t="n"/>
-      <c r="C57" s="28" t="n"/>
-      <c r="D57" s="28" t="n"/>
-      <c r="E57" s="28" t="n"/>
-      <c r="F57" s="28" t="n"/>
-      <c r="G57" s="28" t="n"/>
-      <c r="H57" s="28" t="n"/>
-      <c r="I57" s="28" t="n"/>
-      <c r="J57" s="28" t="n"/>
-      <c r="K57" s="28" t="n"/>
-      <c r="L57" s="28" t="n"/>
-      <c r="M57" s="28" t="n"/>
-      <c r="N57" s="28" t="n"/>
-    </row>
-    <row r="58" customFormat="1" s="27">
-      <c r="B58" s="28" t="n"/>
-      <c r="C58" s="28" t="n"/>
-      <c r="D58" s="28" t="n"/>
-      <c r="E58" s="28" t="n"/>
-      <c r="F58" s="28" t="n"/>
-      <c r="G58" s="28" t="n"/>
-      <c r="H58" s="28" t="n"/>
-      <c r="I58" s="28" t="n"/>
-      <c r="J58" s="28" t="n"/>
-      <c r="K58" s="28" t="n"/>
-      <c r="L58" s="28" t="n"/>
-      <c r="M58" s="28" t="n"/>
-      <c r="N58" s="28" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="13" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="13" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="13" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="13" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
-      <c r="L59" s="13" t="n"/>
-      <c r="M59" s="13" t="n"/>
-      <c r="N59" s="13" t="n"/>
-    </row>
-    <row r="60" customFormat="1" s="27">
-      <c r="B60" s="28" t="n"/>
-      <c r="C60" s="28" t="n"/>
-      <c r="D60" s="28" t="n"/>
-      <c r="E60" s="28" t="n"/>
-      <c r="F60" s="28" t="n"/>
-      <c r="G60" s="28" t="n"/>
-      <c r="H60" s="28" t="n"/>
-      <c r="I60" s="28" t="n"/>
-      <c r="J60" s="28" t="n"/>
-      <c r="K60" s="28" t="n"/>
-      <c r="L60" s="28" t="n"/>
-      <c r="M60" s="28" t="n"/>
-      <c r="N60" s="28" t="n"/>
-    </row>
-    <row r="61" customFormat="1" s="27">
-      <c r="B61" s="28" t="n"/>
-      <c r="C61" s="28" t="n"/>
-      <c r="D61" s="28" t="n"/>
-      <c r="E61" s="28" t="n"/>
-      <c r="F61" s="28" t="n"/>
-      <c r="G61" s="28" t="n"/>
-      <c r="H61" s="28" t="n"/>
-      <c r="I61" s="28" t="n"/>
-      <c r="J61" s="28" t="n"/>
-      <c r="K61" s="28" t="n"/>
-      <c r="L61" s="28" t="n"/>
-      <c r="M61" s="28" t="n"/>
-      <c r="N61" s="28" t="n"/>
-    </row>
-    <row r="62" customFormat="1" s="25">
-      <c r="B62" s="26" t="n"/>
-      <c r="C62" s="26" t="n"/>
-      <c r="D62" s="26" t="n"/>
-      <c r="E62" s="26" t="n"/>
-      <c r="F62" s="26" t="n"/>
-      <c r="G62" s="26" t="n"/>
-      <c r="H62" s="26" t="n"/>
-      <c r="I62" s="26" t="n"/>
-      <c r="J62" s="26" t="n"/>
-      <c r="K62" s="26" t="n"/>
-      <c r="L62" s="26" t="n"/>
-      <c r="M62" s="26" t="n"/>
-      <c r="N62" s="26" t="n"/>
-    </row>
-    <row r="63" customFormat="1" s="25">
-      <c r="B63" s="26" t="n"/>
-      <c r="C63" s="26" t="n"/>
-      <c r="D63" s="26" t="n"/>
-      <c r="E63" s="26" t="n"/>
-      <c r="F63" s="26" t="n"/>
-      <c r="G63" s="26" t="n"/>
-      <c r="H63" s="26" t="n"/>
-      <c r="I63" s="26" t="n"/>
-      <c r="J63" s="26" t="n"/>
-      <c r="K63" s="26" t="n"/>
-      <c r="L63" s="26" t="n"/>
-      <c r="M63" s="26" t="n"/>
-      <c r="N63" s="26" t="n"/>
-    </row>
-    <row r="64" customFormat="1" s="25">
-      <c r="B64" s="26" t="n"/>
-      <c r="C64" s="26" t="n"/>
-      <c r="D64" s="26" t="n"/>
-      <c r="E64" s="26" t="n"/>
-      <c r="F64" s="26" t="n"/>
-      <c r="G64" s="26" t="n"/>
-      <c r="H64" s="26" t="n"/>
-      <c r="I64" s="26" t="n"/>
-      <c r="J64" s="26" t="n"/>
-      <c r="K64" s="26" t="n"/>
-      <c r="L64" s="26" t="n"/>
-      <c r="M64" s="26" t="n"/>
-      <c r="N64" s="26" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="13" t="n"/>
-      <c r="C65" s="13" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="13" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="13" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="13" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
-      <c r="L65" s="13" t="n"/>
-      <c r="M65" s="13" t="n"/>
-      <c r="N65" s="13" t="n"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="13" t="n"/>
-      <c r="C66" s="13" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="13" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="13" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="13" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
-      <c r="L66" s="13" t="n"/>
-      <c r="M66" s="13" t="n"/>
-      <c r="N66" s="13" t="n"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="13" t="n"/>
-      <c r="C67" s="13" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="13" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="13" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="13" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
-      <c r="L67" s="13" t="n"/>
-      <c r="M67" s="13" t="n"/>
-      <c r="N67" s="13" t="n"/>
-    </row>
-    <row r="68" customFormat="1" s="27">
-      <c r="B68" s="28" t="n"/>
-      <c r="C68" s="28" t="n"/>
-      <c r="D68" s="28" t="n"/>
-      <c r="E68" s="28" t="n"/>
-      <c r="F68" s="28" t="n"/>
-      <c r="G68" s="28" t="n"/>
-      <c r="H68" s="28" t="n"/>
-      <c r="I68" s="28" t="n"/>
-      <c r="J68" s="28" t="n"/>
-      <c r="K68" s="28" t="n"/>
-      <c r="L68" s="28" t="n"/>
-      <c r="M68" s="28" t="n"/>
-      <c r="N68" s="28" t="n"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="13" t="n"/>
-      <c r="C69" s="13" t="n"/>
-      <c r="D69" s="13" t="n"/>
-      <c r="E69" s="13" t="n"/>
-      <c r="F69" s="13" t="n"/>
-      <c r="G69" s="13" t="n"/>
-      <c r="H69" s="13" t="n"/>
-      <c r="I69" s="13" t="n"/>
-      <c r="J69" s="13" t="n"/>
-      <c r="K69" s="13" t="n"/>
-      <c r="L69" s="13" t="n"/>
-      <c r="M69" s="13" t="n"/>
-      <c r="N69" s="13" t="n"/>
-    </row>
-    <row r="70" customFormat="1" s="27">
-      <c r="B70" s="28" t="n"/>
-      <c r="C70" s="28" t="n"/>
-      <c r="D70" s="28" t="n"/>
-      <c r="E70" s="28" t="n"/>
-      <c r="F70" s="28" t="n"/>
-      <c r="G70" s="28" t="n"/>
-      <c r="H70" s="28" t="n"/>
-      <c r="I70" s="28" t="n"/>
-      <c r="J70" s="28" t="n"/>
-      <c r="K70" s="28" t="n"/>
-      <c r="L70" s="28" t="n"/>
-      <c r="M70" s="28" t="n"/>
-      <c r="N70" s="28" t="n"/>
-    </row>
-    <row r="71" customFormat="1" s="27">
-      <c r="B71" s="28" t="n"/>
-      <c r="C71" s="28" t="n"/>
-      <c r="D71" s="28" t="n"/>
-      <c r="E71" s="28" t="n"/>
-      <c r="F71" s="28" t="n"/>
-      <c r="G71" s="28" t="n"/>
-      <c r="H71" s="28" t="n"/>
-      <c r="I71" s="28" t="n"/>
-      <c r="J71" s="28" t="n"/>
-      <c r="K71" s="28" t="n"/>
-      <c r="L71" s="28" t="n"/>
-      <c r="M71" s="28" t="n"/>
-      <c r="N71" s="28" t="n"/>
-    </row>
-    <row r="72" customFormat="1" s="27">
-      <c r="B72" s="28" t="n"/>
-      <c r="C72" s="28" t="n"/>
-      <c r="D72" s="28" t="n"/>
-      <c r="E72" s="28" t="n"/>
-      <c r="F72" s="28" t="n"/>
-      <c r="G72" s="28" t="n"/>
-      <c r="H72" s="28" t="n"/>
-      <c r="I72" s="28" t="n"/>
-      <c r="J72" s="28" t="n"/>
-      <c r="K72" s="28" t="n"/>
-      <c r="L72" s="28" t="n"/>
-      <c r="M72" s="28" t="n"/>
-      <c r="N72" s="28" t="n"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="13" t="n"/>
-      <c r="C73" s="13" t="n"/>
-      <c r="D73" s="13" t="n"/>
-      <c r="E73" s="13" t="n"/>
-      <c r="F73" s="13" t="n"/>
-      <c r="G73" s="13" t="n"/>
-      <c r="H73" s="13" t="n"/>
-      <c r="I73" s="13" t="n"/>
-      <c r="J73" s="13" t="n"/>
-      <c r="K73" s="13" t="n"/>
-      <c r="L73" s="13" t="n"/>
-      <c r="M73" s="13" t="n"/>
-      <c r="N73" s="13" t="n"/>
-    </row>
-    <row r="74" customFormat="1" s="27">
-      <c r="B74" s="28" t="n"/>
-      <c r="C74" s="28" t="n"/>
-      <c r="D74" s="28" t="n"/>
-      <c r="E74" s="28" t="n"/>
-      <c r="F74" s="28" t="n"/>
-      <c r="G74" s="28" t="n"/>
-      <c r="H74" s="28" t="n"/>
-      <c r="I74" s="28" t="n"/>
-      <c r="J74" s="28" t="n"/>
-      <c r="K74" s="28" t="n"/>
-      <c r="L74" s="28" t="n"/>
-      <c r="M74" s="28" t="n"/>
-      <c r="N74" s="28" t="n"/>
-    </row>
-    <row r="75" customFormat="1" s="25">
-      <c r="B75" s="26" t="n"/>
-      <c r="C75" s="26" t="n"/>
-      <c r="D75" s="26" t="n"/>
-      <c r="E75" s="26" t="n"/>
-      <c r="F75" s="26" t="n"/>
-      <c r="G75" s="26" t="n"/>
-      <c r="H75" s="26" t="n"/>
-      <c r="I75" s="26" t="n"/>
-      <c r="J75" s="26" t="n"/>
-      <c r="K75" s="26" t="n"/>
-      <c r="L75" s="26" t="n"/>
-      <c r="M75" s="26" t="n"/>
-      <c r="N75" s="26" t="n"/>
-    </row>
-    <row r="76" customFormat="1" s="25">
-      <c r="B76" s="26" t="n"/>
-      <c r="C76" s="26" t="n"/>
-      <c r="D76" s="26" t="n"/>
-      <c r="E76" s="26" t="n"/>
-      <c r="F76" s="26" t="n"/>
-      <c r="G76" s="26" t="n"/>
-      <c r="H76" s="26" t="n"/>
-      <c r="I76" s="26" t="n"/>
-      <c r="J76" s="26" t="n"/>
-      <c r="K76" s="26" t="n"/>
-      <c r="L76" s="26" t="n"/>
-      <c r="M76" s="26" t="n"/>
-      <c r="N76" s="26" t="n"/>
-    </row>
-    <row r="77" customFormat="1" s="25">
-      <c r="B77" s="26" t="n"/>
-      <c r="C77" s="26" t="n"/>
-      <c r="D77" s="26" t="n"/>
-      <c r="E77" s="26" t="n"/>
-      <c r="F77" s="26" t="n"/>
-      <c r="G77" s="26" t="n"/>
-      <c r="H77" s="26" t="n"/>
-      <c r="I77" s="26" t="n"/>
-      <c r="J77" s="26" t="n"/>
-      <c r="K77" s="26" t="n"/>
-      <c r="L77" s="26" t="n"/>
-      <c r="M77" s="26" t="n"/>
-      <c r="N77" s="26" t="n"/>
-    </row>
-    <row r="78" customFormat="1" s="25">
-      <c r="B78" s="26" t="n"/>
-      <c r="C78" s="26" t="n"/>
-      <c r="D78" s="26" t="n"/>
-      <c r="E78" s="26" t="n"/>
-      <c r="F78" s="26" t="n"/>
-      <c r="G78" s="26" t="n"/>
-      <c r="H78" s="26" t="n"/>
-      <c r="I78" s="26" t="n"/>
-      <c r="J78" s="26" t="n"/>
-      <c r="K78" s="26" t="n"/>
-      <c r="L78" s="26" t="n"/>
-      <c r="M78" s="26" t="n"/>
-      <c r="N78" s="26" t="n"/>
-    </row>
-    <row r="79" customFormat="1" s="25">
-      <c r="B79" s="26" t="n"/>
-      <c r="C79" s="26" t="n"/>
-      <c r="D79" s="26" t="n"/>
-      <c r="E79" s="26" t="n"/>
-      <c r="F79" s="26" t="n"/>
-      <c r="G79" s="26" t="n"/>
-      <c r="H79" s="26" t="n"/>
-      <c r="I79" s="26" t="n"/>
-      <c r="J79" s="26" t="n"/>
-      <c r="K79" s="26" t="n"/>
-      <c r="L79" s="26" t="n"/>
-      <c r="M79" s="26" t="n"/>
-      <c r="N79" s="26" t="n"/>
-    </row>
-    <row r="80" customFormat="1" s="25">
-      <c r="B80" s="26" t="n"/>
-      <c r="C80" s="26" t="n"/>
-      <c r="D80" s="26" t="n"/>
-      <c r="E80" s="26" t="n"/>
-      <c r="F80" s="26" t="n"/>
-      <c r="G80" s="26" t="n"/>
-      <c r="H80" s="26" t="n"/>
-      <c r="I80" s="26" t="n"/>
-      <c r="J80" s="26" t="n"/>
-      <c r="K80" s="26" t="n"/>
-      <c r="L80" s="26" t="n"/>
-      <c r="M80" s="26" t="n"/>
-      <c r="N80" s="26" t="n"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="13" t="n"/>
-      <c r="C81" s="13" t="n"/>
-      <c r="D81" s="13" t="n"/>
-      <c r="E81" s="13" t="n"/>
-      <c r="F81" s="13" t="n"/>
-      <c r="G81" s="13" t="n"/>
-      <c r="H81" s="13" t="n"/>
-      <c r="I81" s="13" t="n"/>
-      <c r="J81" s="13" t="n"/>
-      <c r="K81" s="13" t="n"/>
-      <c r="L81" s="13" t="n"/>
-      <c r="M81" s="13" t="n"/>
-      <c r="N81" s="13" t="n"/>
-    </row>
-    <row r="82" customFormat="1" s="27">
-      <c r="B82" s="28" t="n"/>
-      <c r="C82" s="28" t="n"/>
-      <c r="D82" s="28" t="n"/>
-      <c r="E82" s="28" t="n"/>
-      <c r="F82" s="28" t="n"/>
-      <c r="G82" s="28" t="n"/>
-      <c r="H82" s="28" t="n"/>
-      <c r="I82" s="28" t="n"/>
-      <c r="J82" s="28" t="n"/>
-      <c r="K82" s="28" t="n"/>
-      <c r="L82" s="28" t="n"/>
-      <c r="M82" s="28" t="n"/>
-      <c r="N82" s="28" t="n"/>
-    </row>
-    <row r="83" customFormat="1" s="27">
-      <c r="B83" s="28" t="n"/>
-      <c r="C83" s="28" t="n"/>
-      <c r="D83" s="28" t="n"/>
-      <c r="E83" s="28" t="n"/>
-      <c r="F83" s="28" t="n"/>
-      <c r="G83" s="28" t="n"/>
-      <c r="H83" s="28" t="n"/>
-      <c r="I83" s="28" t="n"/>
-      <c r="J83" s="28" t="n"/>
-      <c r="K83" s="28" t="n"/>
-      <c r="L83" s="28" t="n"/>
-      <c r="M83" s="28" t="n"/>
-      <c r="N83" s="28" t="n"/>
-    </row>
-    <row r="84" customFormat="1" s="27">
-      <c r="B84" s="28" t="n"/>
-      <c r="C84" s="28" t="n"/>
-      <c r="D84" s="28" t="n"/>
-      <c r="E84" s="28" t="n"/>
-      <c r="F84" s="28" t="n"/>
-      <c r="G84" s="28" t="n"/>
-      <c r="H84" s="28" t="n"/>
-      <c r="I84" s="28" t="n"/>
-      <c r="J84" s="28" t="n"/>
-      <c r="K84" s="28" t="n"/>
-      <c r="L84" s="28" t="n"/>
-      <c r="M84" s="28" t="n"/>
-      <c r="N84" s="28" t="n"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="13" t="n"/>
-      <c r="C85" s="13" t="n"/>
-      <c r="D85" s="13" t="n"/>
-      <c r="E85" s="13" t="n"/>
-      <c r="F85" s="13" t="n"/>
-      <c r="G85" s="13" t="n"/>
-      <c r="H85" s="13" t="n"/>
-      <c r="I85" s="13" t="n"/>
-      <c r="J85" s="13" t="n"/>
-      <c r="K85" s="13" t="n"/>
-      <c r="L85" s="13" t="n"/>
-      <c r="M85" s="13" t="n"/>
-      <c r="N85" s="13" t="n"/>
-    </row>
-    <row r="86" customFormat="1" s="27">
-      <c r="B86" s="28" t="n"/>
-      <c r="C86" s="28" t="n"/>
-      <c r="D86" s="28" t="n"/>
-      <c r="E86" s="28" t="n"/>
-      <c r="F86" s="28" t="n"/>
-      <c r="G86" s="28" t="n"/>
-      <c r="H86" s="28" t="n"/>
-      <c r="I86" s="28" t="n"/>
-      <c r="J86" s="28" t="n"/>
-      <c r="K86" s="28" t="n"/>
-      <c r="L86" s="28" t="n"/>
-      <c r="M86" s="28" t="n"/>
-      <c r="N86" s="28" t="n"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="13" t="n"/>
-      <c r="C87" s="13" t="n"/>
-      <c r="D87" s="13" t="n"/>
-      <c r="E87" s="13" t="n"/>
-      <c r="F87" s="13" t="n"/>
-      <c r="G87" s="13" t="n"/>
-      <c r="H87" s="13" t="n"/>
-      <c r="I87" s="13" t="n"/>
-      <c r="J87" s="13" t="n"/>
-      <c r="K87" s="13" t="n"/>
-      <c r="L87" s="13" t="n"/>
-      <c r="M87" s="13" t="n"/>
-      <c r="N87" s="13" t="n"/>
-    </row>
-    <row r="88" customFormat="1" s="25">
-      <c r="B88" s="26" t="n"/>
-      <c r="C88" s="26" t="n"/>
-      <c r="D88" s="26" t="n"/>
-      <c r="E88" s="26" t="n"/>
-      <c r="F88" s="26" t="n"/>
-      <c r="G88" s="26" t="n"/>
-      <c r="H88" s="26" t="n"/>
-      <c r="I88" s="26" t="n"/>
-      <c r="J88" s="26" t="n"/>
-      <c r="K88" s="26" t="n"/>
-      <c r="L88" s="26" t="n"/>
-      <c r="M88" s="26" t="n"/>
-      <c r="N88" s="26" t="n"/>
-    </row>
-    <row r="89" customFormat="1" s="25">
-      <c r="B89" s="26" t="n"/>
-      <c r="C89" s="26" t="n"/>
-      <c r="D89" s="26" t="n"/>
-      <c r="E89" s="26" t="n"/>
-      <c r="F89" s="26" t="n"/>
-      <c r="G89" s="26" t="n"/>
-      <c r="H89" s="26" t="n"/>
-      <c r="I89" s="26" t="n"/>
-      <c r="J89" s="26" t="n"/>
-      <c r="K89" s="26" t="n"/>
-      <c r="L89" s="26" t="n"/>
-      <c r="M89" s="26" t="n"/>
-      <c r="N89" s="26" t="n"/>
-    </row>
-    <row r="90" customFormat="1" s="25">
-      <c r="B90" s="26" t="n"/>
-      <c r="C90" s="26" t="n"/>
-      <c r="D90" s="26" t="n"/>
-      <c r="E90" s="26" t="n"/>
-      <c r="F90" s="26" t="n"/>
-      <c r="G90" s="26" t="n"/>
-      <c r="H90" s="26" t="n"/>
-      <c r="I90" s="26" t="n"/>
-      <c r="J90" s="26" t="n"/>
-      <c r="K90" s="26" t="n"/>
-      <c r="L90" s="26" t="n"/>
-      <c r="M90" s="26" t="n"/>
-      <c r="N90" s="26" t="n"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="13" t="n"/>
-      <c r="C91" s="13" t="n"/>
-      <c r="D91" s="13" t="n"/>
-      <c r="E91" s="13" t="n"/>
-      <c r="F91" s="13" t="n"/>
-      <c r="G91" s="13" t="n"/>
-      <c r="H91" s="13" t="n"/>
-      <c r="I91" s="13" t="n"/>
-      <c r="J91" s="13" t="n"/>
-      <c r="K91" s="13" t="n"/>
-      <c r="L91" s="13" t="n"/>
-      <c r="M91" s="13" t="n"/>
-      <c r="N91" s="13" t="n"/>
-    </row>
-    <row r="92" customFormat="1" s="27">
-      <c r="B92" s="28" t="n"/>
-      <c r="C92" s="28" t="n"/>
-      <c r="D92" s="28" t="n"/>
-      <c r="E92" s="28" t="n"/>
-      <c r="F92" s="28" t="n"/>
-      <c r="G92" s="28" t="n"/>
-      <c r="H92" s="28" t="n"/>
-      <c r="I92" s="28" t="n"/>
-      <c r="J92" s="28" t="n"/>
-      <c r="K92" s="28" t="n"/>
-      <c r="L92" s="28" t="n"/>
-      <c r="M92" s="28" t="n"/>
-      <c r="N92" s="28" t="n"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="13" t="n"/>
-      <c r="C93" s="13" t="n"/>
-      <c r="D93" s="13" t="n"/>
-      <c r="E93" s="13" t="n"/>
-      <c r="F93" s="13" t="n"/>
-      <c r="G93" s="13" t="n"/>
-      <c r="H93" s="13" t="n"/>
-      <c r="I93" s="13" t="n"/>
-      <c r="J93" s="13" t="n"/>
-      <c r="K93" s="13" t="n"/>
-      <c r="L93" s="13" t="n"/>
-      <c r="M93" s="13" t="n"/>
-      <c r="N93" s="13" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="13" t="n"/>
-      <c r="C95" s="13" t="n"/>
-      <c r="D95" s="13" t="n"/>
-      <c r="E95" s="13" t="n"/>
-      <c r="F95" s="13" t="n"/>
-      <c r="G95" s="13" t="n"/>
-      <c r="H95" s="13" t="n"/>
-      <c r="I95" s="13" t="n"/>
-      <c r="J95" s="13" t="n"/>
-      <c r="K95" s="13" t="n"/>
-      <c r="L95" s="13" t="n"/>
-      <c r="M95" s="13" t="n"/>
-      <c r="N95" s="13" t="n"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="13" t="n"/>
-      <c r="C96" s="13" t="n"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="13" t="n"/>
-      <c r="C97" s="13" t="n"/>
-      <c r="D97" s="13" t="n"/>
-      <c r="E97" s="13" t="n"/>
-      <c r="F97" s="13" t="n"/>
-      <c r="G97" s="13" t="n"/>
-      <c r="H97" s="13" t="n"/>
-      <c r="I97" s="13" t="n"/>
-      <c r="J97" s="13" t="n"/>
-      <c r="K97" s="13" t="n"/>
-      <c r="L97" s="13" t="n"/>
-      <c r="M97" s="13" t="n"/>
-      <c r="N97" s="13" t="n"/>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+    </row>
+    <row r="49" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+    </row>
+    <row r="58" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+    </row>
+    <row r="61" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+    </row>
+    <row r="62" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+    </row>
+    <row r="64" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+    </row>
+    <row r="71" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+    </row>
+    <row r="72" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+    </row>
+    <row r="75" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+    </row>
+    <row r="76" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+    </row>
+    <row r="77" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+    </row>
+    <row r="78" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+    </row>
+    <row r="79" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+    </row>
+    <row r="80" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+    </row>
+    <row r="83" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+    </row>
+    <row r="84" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+    </row>
+    <row r="89" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+    </row>
+    <row r="90" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToWidth="2" horizontalDpi="300" verticalDpi="300"/>
+  <sortState ref="A9:O38">
+    <sortCondition descending="1" ref="B9:B38"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>